--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\AndroidStudioProjects\Travel-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8C9AED-DDE4-4C6D-B1FD-AEFBF4A7A34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CEF82C-312A-4797-B235-3BA4866B9EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6C5E816E-DA52-4B3C-B4F9-C4711A8EFC71}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Number</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>December</t>
-  </si>
-  <si>
     <t>Choosing the project</t>
   </si>
   <si>
@@ -76,13 +73,34 @@
   </si>
   <si>
     <t>Gantt Chart for "Travel app" project</t>
+  </si>
+  <si>
+    <t>December/January/February</t>
+  </si>
+  <si>
+    <t>ER-Diagram added</t>
+  </si>
+  <si>
+    <t>15/01/2025</t>
+  </si>
+  <si>
+    <t>20/01/1025</t>
+  </si>
+  <si>
+    <t>Normalization Update &amp; Submit</t>
+  </si>
+  <si>
+    <t>Development Start</t>
+  </si>
+  <si>
+    <t>Architectural Design Submit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +144,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -230,43 +255,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58436EF2-C666-4E3F-91C4-CF5975E39460}">
-  <dimension ref="A1:AM9"/>
+  <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,512 +667,716 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="13">
         <v>1</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="13">
         <v>2</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="13">
         <v>3</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="13">
         <v>4</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="13">
         <v>5</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="13">
         <v>6</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="13">
         <v>7</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="13">
         <v>8</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="13">
         <v>9</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="13">
         <v>10</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="13">
         <v>11</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="13">
         <v>12</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="13">
         <v>13</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="13">
         <v>14</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="13">
         <v>15</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="13">
         <v>16</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="13">
         <v>17</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="13">
         <v>18</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="13">
         <v>19</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="13">
         <v>20</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="13">
         <v>21</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="13">
         <v>22</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE4" s="13">
         <v>23</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AF4" s="13">
         <v>24</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AG4" s="13">
         <v>25</v>
       </c>
-      <c r="AH4" s="3">
+      <c r="AH4" s="13">
         <v>26</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AI4" s="13">
         <v>27</v>
       </c>
-      <c r="AJ4" s="3">
+      <c r="AJ4" s="13">
         <v>28</v>
       </c>
-      <c r="AK4" s="3">
+      <c r="AK4" s="13">
         <v>29</v>
       </c>
-      <c r="AL4" s="3">
+      <c r="AL4" s="13">
         <v>30</v>
       </c>
-      <c r="AM4" s="3">
+      <c r="AM4" s="13">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7">
+      <c r="B5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2">
         <v>45303</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="2">
         <v>45363</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7">
+      <c r="B6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2">
         <v>45394</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="2">
         <v>45455</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="1">
         <v>3</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7">
+      <c r="B7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2">
         <v>45485</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="2">
         <v>45485</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="7">
+      <c r="B8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2">
         <v>45516</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="2">
         <v>45638</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="1">
         <v>5</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="H9" s="1">
         <v>5</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="8">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2">
+        <v>45659</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45840</v>
+      </c>
+      <c r="H11" s="8">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>8</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2">
+        <v>45871</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45932</v>
+      </c>
+      <c r="H12" s="8">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2">
+        <v>45993</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="A1:AM2"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:AM3"/>
   </mergeCells>

--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\AndroidStudioProjects\Travel-App\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CEF82C-312A-4797-B235-3BA4866B9EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6C5E816E-DA52-4B3C-B4F9-C4711A8EFC71}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Number</t>
   </si>
@@ -75,9 +69,6 @@
     <t>Gantt Chart for "Travel app" project</t>
   </si>
   <si>
-    <t>December/January/February</t>
-  </si>
-  <si>
     <t>ER-Diagram added</t>
   </si>
   <si>
@@ -90,16 +81,22 @@
     <t>Normalization Update &amp; Submit</t>
   </si>
   <si>
-    <t>Development Start</t>
-  </si>
-  <si>
     <t>Architectural Design Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development </t>
+  </si>
+  <si>
+    <t>2 Month</t>
+  </si>
+  <si>
+    <t>December/January/February/March/April</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -263,52 +260,52 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -371,7 +368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -423,7 +420,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -617,304 +614,304 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58436EF2-C666-4E3F-91C4-CF5975E39460}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
-    <col min="9" max="9" width="4.88671875" customWidth="1"/>
-    <col min="10" max="10" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" customWidth="1"/>
+    <col min="9" max="9" width="4.90625" customWidth="1"/>
+    <col min="10" max="10" width="4.54296875" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="12" width="3.88671875" customWidth="1"/>
+    <col min="12" max="12" width="3.90625" customWidth="1"/>
     <col min="13" max="13" width="4" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" customWidth="1"/>
-    <col min="15" max="15" width="3.88671875" customWidth="1"/>
-    <col min="16" max="17" width="3.77734375" customWidth="1"/>
-    <col min="18" max="20" width="3.44140625" customWidth="1"/>
-    <col min="21" max="21" width="3.77734375" customWidth="1"/>
-    <col min="22" max="22" width="3.109375" customWidth="1"/>
-    <col min="23" max="23" width="3.5546875" customWidth="1"/>
-    <col min="24" max="24" width="3.44140625" customWidth="1"/>
-    <col min="25" max="25" width="3.77734375" customWidth="1"/>
+    <col min="14" max="14" width="3.54296875" customWidth="1"/>
+    <col min="15" max="15" width="3.90625" customWidth="1"/>
+    <col min="16" max="17" width="3.81640625" customWidth="1"/>
+    <col min="18" max="20" width="3.453125" customWidth="1"/>
+    <col min="21" max="21" width="3.81640625" customWidth="1"/>
+    <col min="22" max="22" width="3.08984375" customWidth="1"/>
+    <col min="23" max="23" width="3.54296875" customWidth="1"/>
+    <col min="24" max="24" width="3.453125" customWidth="1"/>
+    <col min="25" max="25" width="3.81640625" customWidth="1"/>
     <col min="26" max="26" width="3" customWidth="1"/>
-    <col min="27" max="27" width="3.21875" customWidth="1"/>
-    <col min="28" max="28" width="3.5546875" customWidth="1"/>
-    <col min="29" max="29" width="3.21875" customWidth="1"/>
+    <col min="27" max="27" width="3.1796875" customWidth="1"/>
+    <col min="28" max="28" width="3.54296875" customWidth="1"/>
+    <col min="29" max="29" width="3.1796875" customWidth="1"/>
     <col min="30" max="30" width="3" customWidth="1"/>
-    <col min="31" max="31" width="3.5546875" customWidth="1"/>
-    <col min="32" max="32" width="3.44140625" customWidth="1"/>
-    <col min="33" max="33" width="3.5546875" customWidth="1"/>
-    <col min="34" max="34" width="3.44140625" customWidth="1"/>
-    <col min="35" max="36" width="3.5546875" customWidth="1"/>
-    <col min="37" max="37" width="3.44140625" customWidth="1"/>
-    <col min="38" max="38" width="3.21875" customWidth="1"/>
+    <col min="31" max="31" width="3.54296875" customWidth="1"/>
+    <col min="32" max="32" width="3.453125" customWidth="1"/>
+    <col min="33" max="33" width="3.54296875" customWidth="1"/>
+    <col min="34" max="34" width="3.453125" customWidth="1"/>
+    <col min="35" max="36" width="3.54296875" customWidth="1"/>
+    <col min="37" max="37" width="3.453125" customWidth="1"/>
+    <col min="38" max="38" width="3.1796875" customWidth="1"/>
     <col min="39" max="39" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4">
+        <v>4</v>
+      </c>
+      <c r="M4" s="4">
+        <v>5</v>
+      </c>
+      <c r="N4" s="4">
+        <v>6</v>
+      </c>
+      <c r="O4" s="4">
+        <v>7</v>
+      </c>
+      <c r="P4" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>9</v>
+      </c>
+      <c r="R4" s="4">
+        <v>10</v>
+      </c>
+      <c r="S4" s="4">
+        <v>11</v>
+      </c>
+      <c r="T4" s="4">
+        <v>12</v>
+      </c>
+      <c r="U4" s="4">
         <v>13</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
+      <c r="V4" s="4">
+        <v>14</v>
+      </c>
+      <c r="W4" s="4">
+        <v>15</v>
+      </c>
+      <c r="X4" s="4">
+        <v>16</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>17</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>18</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>19</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>20</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>21</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>22</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>23</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>24</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>25</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>26</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>27</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>28</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>29</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>30</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="13">
-        <v>1</v>
-      </c>
-      <c r="J4" s="13">
-        <v>2</v>
-      </c>
-      <c r="K4" s="13">
-        <v>3</v>
-      </c>
-      <c r="L4" s="13">
-        <v>4</v>
-      </c>
-      <c r="M4" s="13">
-        <v>5</v>
-      </c>
-      <c r="N4" s="13">
-        <v>6</v>
-      </c>
-      <c r="O4" s="13">
-        <v>7</v>
-      </c>
-      <c r="P4" s="13">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>9</v>
-      </c>
-      <c r="R4" s="13">
-        <v>10</v>
-      </c>
-      <c r="S4" s="13">
-        <v>11</v>
-      </c>
-      <c r="T4" s="13">
-        <v>12</v>
-      </c>
-      <c r="U4" s="13">
-        <v>13</v>
-      </c>
-      <c r="V4" s="13">
-        <v>14</v>
-      </c>
-      <c r="W4" s="13">
-        <v>15</v>
-      </c>
-      <c r="X4" s="13">
-        <v>16</v>
-      </c>
-      <c r="Y4" s="13">
-        <v>17</v>
-      </c>
-      <c r="Z4" s="13">
-        <v>18</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>19</v>
-      </c>
-      <c r="AB4" s="13">
-        <v>20</v>
-      </c>
-      <c r="AC4" s="13">
-        <v>21</v>
-      </c>
-      <c r="AD4" s="13">
-        <v>22</v>
-      </c>
-      <c r="AE4" s="13">
-        <v>23</v>
-      </c>
-      <c r="AF4" s="13">
-        <v>24</v>
-      </c>
-      <c r="AG4" s="13">
-        <v>25</v>
-      </c>
-      <c r="AH4" s="13">
-        <v>26</v>
-      </c>
-      <c r="AI4" s="13">
-        <v>27</v>
-      </c>
-      <c r="AJ4" s="13">
-        <v>28</v>
-      </c>
-      <c r="AK4" s="13">
-        <v>29</v>
-      </c>
-      <c r="AL4" s="13">
-        <v>30</v>
-      </c>
-      <c r="AM4" s="13">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2">
         <v>45303</v>
@@ -925,9 +922,9 @@
       <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -957,15 +954,15 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2">
         <v>45394</v>
@@ -979,9 +976,9 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1008,15 +1005,15 @@
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2">
         <v>45485</v>
@@ -1033,7 +1030,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="17"/>
+      <c r="O7" s="5"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1059,15 +1056,15 @@
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2">
         <v>45516</v>
@@ -1085,11 +1082,11 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -1110,15 +1107,15 @@
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1141,11 +1138,11 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -1161,23 +1158,23 @@
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+    <row r="10" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="H10" s="3">
         <v>5</v>
       </c>
       <c r="I10" s="1"/>
@@ -1197,10 +1194,10 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
@@ -1212,15 +1209,15 @@
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+    <row r="11" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2">
         <v>45659</v>
@@ -1228,7 +1225,7 @@
       <c r="G11" s="2">
         <v>45840</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="3">
         <v>7</v>
       </c>
       <c r="I11" s="1"/>
@@ -1252,26 +1249,26 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+    <row r="12" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2">
         <v>45871</v>
@@ -1279,7 +1276,7 @@
       <c r="G12" s="2">
         <v>45932</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="3">
         <v>3</v>
       </c>
       <c r="I12" s="1"/>
@@ -1308,27 +1305,31 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+    <row r="13" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2">
         <v>45993</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="2">
+        <v>45782</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1357,28 +1358,28 @@
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A1:AM2"/>
+    <mergeCell ref="I3:AM3"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A1:AM2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:AM3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
